--- a/medicine/Mort/Liste_de_personnalités_assassinées/Liste_de_personnalités_assassinées.xlsx
+++ b/medicine/Mort/Liste_de_personnalités_assassinées/Liste_de_personnalités_assassinées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+          <t>Liste_de_personnalités_assassinées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les personnalités qui ont été assassinées.
 Cette liste comprend certains personnages historiques dont la mort ne fait pas l'objet d'un consensus mais dont l'assassinat est mentionné par certaines sources. Les détails sur les circonstances dans lesquelles elles furent tuées sont donnés dans les articles qui leur sont consacrés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+          <t>Liste_de_personnalités_assassinées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Antiquité
-2291 av. J.-C. : Téti, pharaon fondateur de la VIe dynastie.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2291 av. J.-C. : Téti, pharaon fondateur de la VIe dynastie.
 1962 av. J.-C. : Amenemhat Ier, pharaon fondateur de la XIIe dynastie.
 1590 av. J.-C. : Mursili Ier, souverain hittite ayant régné de 1620 à 1590 av. J.-C.
 1154 av. J.-C. : Ramsès III, pharaon de la XXe dynastie
@@ -608,9 +625,43 @@
 Sigéric, roi wisigoth.
   452 : Tuoba Tao, empereur de la Chine du Nord.
   480 : Julius Nepos, ancien empereur romain.
-  493 : Odoacre, patrice d'Italie.
-Moyen Âge
-  531 :
+  493 : Odoacre, patrice d'Italie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Monarques, chefs d’État et de gouvernement</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  531 :
 Miliau, roi de Bretagne.
 Amalaric, roi wisigoth d'Hispanie.
   535 : Amalasonte, reine ostrogothique.
@@ -763,9 +814,43 @@
 1483 : Édouard V d'Angleterre, roi d'Angleterre.
 1486 : Tizoc, souverain aztèque.
 1488 : Jacques III d'Écosse, roi d'Écosse.
-1494 : Giovanni III Crispo, duc de Naxos.
-Renaissance et époque moderne (XVIe au XVIIIe siècle)
-1520 : Moctezuma II, empereur des Aztèques.
+1494 : Giovanni III Crispo, duc de Naxos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Monarques, chefs d’État et de gouvernement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renaissance et époque moderne (XVIe au XVIIIe siècle)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1520 : Moctezuma II, empereur des Aztèques.
 1532 : Huascar, empereur inca.
 1533 : Atahualpa, dernier empereur Inca, par les conquistadors espagnols de Francisco Pizarro à Cajamarca.
 1537 : Alexandre de Médicis, duc de Florence
@@ -810,9 +895,43 @@
 1777 : Takla Haïmanot II d'Éthiopie, négus d'Éthiopie.
 1789 : Jafar Khan, chah d'Iran.
 1792 : Gustave III, roi de Suède.
-1793 :  Le Roi Louis XVI est guillotiné le 21 janvier place de la Concorde et son épouse la reine Marie-Antoinette le 16 octobre.
-Époque contemporaine (XIXe siècle)
-1801 : Paul Ier de Russie, tsar de Russie.
+1793 :  Le Roi Louis XVI est guillotiné le 21 janvier place de la Concorde et son épouse la reine Marie-Antoinette le 16 octobre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Monarques, chefs d’État et de gouvernement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Époque contemporaine (XIXe siècle)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1801 : Paul Ier de Russie, tsar de Russie.
 1806 : Jean-Jacques Dessalines, empereur d'Haïti sous le nom de Jacques Ier.
 1807 : Abdoul Kader Kane, premier Almamy du Fouta-Toro.
 1812 : Spencer Perceval, premier ministre britannique.
@@ -845,9 +964,43 @@
 1896 : Nasseredin Shah, shah d'Iran.
 1897 : Antonio Cánovas del Castillo, premier ministre espagnol.
 1898 : Élisabeth de Wittelsbach, impératrice d'Autriche et reine de Hongrie dite « Sissi ».
-1900 : Humbert Ier, roi d'Italie.
-XXe siècle
-1901 : William McKinley, président des États-Unis.
+1900 : Humbert Ier, roi d'Italie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Monarques, chefs d’État et de gouvernement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1901 : William McKinley, président des États-Unis.
 1903 : Alexandre Ier Obrenovitch, roi de Serbie, en même temps que sa femme Draga.
 1905 : Theódoros Deligiánnis, premier ministre grec.
 1908 : Charles Ier, roi du Portugal, au même moment que son fils Louis-Philippe de Bragance.
@@ -991,9 +1144,43 @@
 1996 : Mohammad Najibullah, président de la république d'Afghanistan.
 1999 :
 Ibrahim Baré Maïnassara, président du Niger.
-Vasgen Sarkissian, premier ministre arménien.
-XXIe siècle
-2001 :
+Vasgen Sarkissian, premier ministre arménien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Monarques, chefs d’État et de gouvernement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2001 :
 Birendra et Aiswary, roi et reine du Népal (avec 9 autres membres de la famille royale).
 Laurent-Désiré Kabila, président de la République démocratique du Congo.
 2003 : Zoran Đinđić, premier ministre serbe.
@@ -1005,34 +1192,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Assassinats politiques ou de personnalités politiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antiquité
-1198 av. J.-C. ou 1199 av. J.-C. : Bay, haut dignitaire du phraon Siptah.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1198 av. J.-C. ou 1199 av. J.-C. : Bay, haut dignitaire du phraon Siptah.
   411 av. J.-C. : Phrynique, du dème Deiradès, l'un des Quatre-Cents, stratège opposé à Alcibiade.
   404 av. J.-C. : Alcibiade, homme d'État et général athénien, neveu de Périclès, disciple et ami de Socrate.
   366 av. J.-C./365 av. J.-C. : Timophane, homme politique de Corinthe.
@@ -1099,9 +1291,43 @@
   388 : Flavius Victor, usurpateur de l'Empire romain d'Occident.
   395 : Flavius Rufinus dit Rufin, préfet du prétoire de Théodose Ier et dirigeant effectif de l’Empire romain d'Orient sous le règne d'Arcadius.
   411 : Edobich, chef franc.
-  415 : Hypatie, philosophe grecque.
-Moyen Âge
-  454 : Flavius Aetius, sénateur et généralissime des légions romaines, Patrice et « comes et magister utriusque militiae » (« comte et maître des deux milices »).
+  415 : Hypatie, philosophe grecque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  454 : Flavius Aetius, sénateur et généralissime des légions romaines, Patrice et « comes et magister utriusque militiae » (« comte et maître des deux milices »).
   518 : Vitalien, général byzantin.
   524 : Saint Sigismond (Sigismund), roi des Burgondes, mis à mort près d'Orléans sur ordre de Clodomir, le fils de Clovis.
   533 :
@@ -1219,9 +1445,43 @@
 1482 : Louis de Bourbon, prince-évêque de Liège.
 1485 : Pedro de Arbués, inquisiteur espagnol.
 1489 : Henry Percy, baron anglais, comte de Northumberland.
-1497 : Giovanni Borgia, condottiere italien.
-Renaissance et époque moderne (XVIe siècle au XVIIIe siècle)
-1501 : Giovanni Battista Zeno, cardinal italien.
+1497 : Giovanni Borgia, condottiere italien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Renaissance et époque moderne (XVIe siècle au XVIIIe siècle)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1501 : Giovanni Battista Zeno, cardinal italien.
 1502 :
 Oliverotto da Fermo, condottiere italien.
 Vitellozzo Vitelli, condottiere italien.
@@ -1321,9 +1581,43 @@
 Pierre Briand, juge de paix de Briec.
 Antoine Bonnier d'Alco et Claude Roberjot, diplomates français au Second congrès de Rastadt.
 Jean François Sylvestre Denis de Trobriand, officier de marine français.
-1800 : Yves Marie Audrein, évêque de Quimper et conventionnel régicide.
-Époque contemporaine (XIXe siècle)
-1812 : Louis-Alexandre de Launay, aventurier politique français, et sa femme Antoinette Saint-Huberty, cantatrice française.
+1800 : Yves Marie Audrein, évêque de Quimper et conventionnel régicide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Époque contemporaine (XIXe siècle)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1812 : Louis-Alexandre de Launay, aventurier politique français, et sa femme Antoinette Saint-Huberty, cantatrice française.
 1814 : Giuseppe Prina, ministre des finances du royaume d'Italie.
 1815 : Guillaume Marie-Anne Brune, maréchal français.
 1817 :
@@ -1380,10 +1674,47 @@
 Crow Foot, fils de Sitting Bull.
 1895 : Myeongseong, épouse de l'empereur Gojong dernier roi de la dynastie coréenne Chosŏn.
 1898 : Gabriel Marius Cazemajou, officier et explorateur français.
-1900 : Clemens von Ketteler, diplomate allemand.
-XXe siècle
-1901-1910
-1902 : Dmitri Sipiaguine, ministre de l'intérieur russe.
+1900 : Clemens von Ketteler, diplomate allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1901-1910</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1902 : Dmitri Sipiaguine, ministre de l'intérieur russe.
 1904 : Viatcheslav Plehve, ministre de l'intérieur russe.
 1905 :
 Nikolaï Bobrikov, gouverneur-général de la Finlande.
@@ -1396,9 +1727,47 @@
 1908 : Louis-Philippe de Bragance, prince royal de Portugal, au même moment que son père Carlos Ier.
 1910 :
 Hirobumi Itō, résident général japonais en Corée.
-Miguel Bombarda, médecin et homme politique portugais.
-1911-1920
-1912 : Eloy Alfaro, ancien président de l'Équateur.
+Miguel Bombarda, médecin et homme politique portugais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1911-1920</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1912 : Eloy Alfaro, ancien président de l'Équateur.
 1913 :
 Song Jiaoren, membre fondateur du Guomindang.
 Nazım Pacha, ministre de la Guerre ottoman.
@@ -1464,9 +1833,47 @@
 1920
 Demetriu Radu, évêque gréco-catholique de Oradea Mare (Roumanie).
 Dimitrie Greceanu (ro), ministre de la Justice roumain.
-Fatali Khan Khoyski, ancien Premier ministre de la République démocratique d'Azerbaïdjan
-1921-1930
-1921 :
+Fatali Khan Khoyski, ancien Premier ministre de la République démocratique d'Azerbaïdjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1921-1930</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1921 :
 Matthias Erzberger, homme politique allemand.
 Alberto Acquacalda, lieutenant des Arditi del Popolo.
 Talaat Pacha, ancien grand vizir ottoman.
@@ -1509,9 +1916,47 @@
 1930
 João Pessoa Cavalcanti de Albuquerque, gouverneur de l'État de la Paraïba (Brésil).
 João Suassuna, ancien gouverneur de l'État de la Paraïba.
-Horst Wessel, militant nazi allemand.
-1931-1940
-1932 : Incident de la Ligue du sang.
+Horst Wessel, militant nazi allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1931-1940</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1932 : Incident de la Ligue du sang.
 Dan Takuma, homme d'affaires japonais.
 Junnosuke Inoue, homme d'affaires japonais.
 Yoshinori Shirakawa, général de l'armée impériale japonaise.
@@ -1589,9 +2034,47 @@
 1940 :
 Léon Trotsky, fondateur de l’Armée rouge.
 Michael O'Dwyer, ancien gouverneur britannique du Pendjab.
-Nikolaï Koltsov, biologiste soviétique.
-1941-1950
-1941 :
+Nikolaï Koltsov, biologiste soviétique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1941-1950</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1941 :
 Marx Dormoy, homme politique français, ancien maire de Montluçon.
 Marcel Gitton, secrétaire général du Parti populaire français.
 1942 :
@@ -1654,9 +2137,47 @@
 1950 :
 Julien Lahaut, député communiste de Liège (Belgique).
 Sami al-Hinnawi, ancien président syrien.
-Vasile Aftenie, évêque roumain uni à Rome.
-1951-1960
-1951 :
+Vasile Aftenie, évêque roumain uni à Rome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1951-1960</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1951 :
 Amédée Fengarol, maire de Pointe-à-Pitre, Guadeloupe.
 Pierre Chevallier, maire d'Orléans et secrétaire d'État à l'Enseignement technique, à la Jeunesse et aux Sports.
 1952 : Farhat Hached, syndicaliste tunisien.
@@ -1680,41 +2201,782 @@
 Les sœurs Mirabal, militantes dominicaines antitrujillista :
 Patria Mirabal
 Minerva Mirabal
-María Teresa Mirabal
-1961-1970
-1961 :
+María Teresa Mirabal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1961-1970</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1961 :
 Camille Blanc, maire d'Évian.
 Salah Ben Youssef, homme politique tunisien.
 Jacques Stéphen Alexis, écrivain haïtien.
-Roger Ga</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Roger Gavoury, commissaire central d'Alger.
+Barthélémy Rossello, agent français du Mouvement pour la communauté.
+1962 :
+Camille Petitjean, ingénieur français.
+Assassinat de Château-Royal :
+Marcel Basset, directeur du Centre de formation de l'Éducation de Base à Tixeraine (Centres Sociaux Éducatifs d'Algérie).
+Robert Eymard, chef du bureau d'études pédagogiques aux CSE.
+Mouloud Feraoun, directeur adjoint au chef de service des CSE et écrivain.
+Ali Hammoutène, inspecteur de l'Éducation Nationale, directeur adjoint aux CSE.
+Max Marchand, chef de service aux CSE.
+Salah Ould Aoudia, inspecteur des CSE de la région Alger Est.
+1963 :
+Mohamed Khemisti, ministre algérien des Affaires étrangères.
+Ngo Dinh Nhu, homme politique vietnamien.
+Gregoris Lambrakis, député grec.
+Medgar Evers, militant américain du NAACP.
+Henri Lafond, banquier et conseiller économique français.
+1964 :
+Adib Chichakli, ancien président syrien.
+Meurtres de la Freedom Summer :
+James Chaney.
+Andrew Goodman.
+Michael Schwerner, militants américains des droits civiques.
+1965 :
+Mehdi Ben Barka, leader socialiste de l'opposition marocaine, tiers-mondiste, panafricaniste et anticolonialiste.
+Malcolm X, militant politique américain.
+Humberto Delgado, militaire portugais et opposant au régime de Salazar.
+Viola Liuzzo, militante américaine des droits civiques.
+Jean-Jacques Dessalines Ambroise, homme politique haïtien, ainsi que sa femme Lucette Lafontant.
+Herberts Cukurs, criminel de guerre letton.
+Triple assassinat de Lazare Matsocota, Joseph Pouabou et Anselme Massouémé, personnalités politiques congolaises.
+1966 : Castor Osende Afana, homme politique camerounais.
+1967 :
+Mohamed Khider, homme politique algérien.
+Ernesto Guevara dit Le Che, exécuté sans jugement par l'armée bolivienne.
+George Lincoln Rockwell, leader du Parti nazi américain.
+Demba Diop, ministre de la Jeunesse et des sports du Sénégal.
+1968 :
+Martin Luther King, pasteur et homme politique américain.
+Robert Kennedy, homme politique américain.
+Sergio Pérez Castillo, diplomate canadien.
+1969 :
+Tom Mboya, homme politique kenyan.
+Atanasio Ndong Miyone, ministre équatoguinéen.
+1970 :
+Belkacem Krim, homme politique algérien.
+Pierre Laporte, ministre du Travail québécois.
+Dan Mitrione, agent du FBI et expert en torture.
+René Schneider, général chilien.
+Karl von Spreti, ambassadeur allemand.
+Pedro Eugenio Aramburu, ancien président de l'Argentine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1971-1980</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1971 :
+Parouir Sévak, poète arménien.
+Maximiliano Gómez, chef communiste dominicain.
+Sean Flynn, photojournaliste américain.
+Pierre Overney, militant maoïste de la Gauche prolétarienne.
+Mario Bachand, militant québécois du FLQ.
+1972 :
+Ghassan Kanafani, écrivain palestinien.
+Mahir Çayan, leader du Parti de la libération du peuple de Turquie (de).
+Luigi Calabresi, commissaire de police italien.
+1973 :
+Amilcar Cabral, leader indépendantiste de Guinée-Bissau.
+Jean Sénac, écrivain algérien.
+Outel Bono, opposant tchadien.
+Eugenio Garza Sada, homme d'affaires mexicain.
+Richard Sharples, gouverneur des Bermudes.
+Mohammed Youssef al-Najjar, plus connu sous le nom d’Abou Youssef, numéro 2 du Fatah.
+Kamal Nasser, membre de l'OLP.
+Kamal Adouan, membre de l'OLP.
+Ahmed Bouchiki, citoyen norvégien confondu avec Ali Hassan Salameh.
+Victor Jara, chanteur et militant communiste chilien.
+İbrahim Kaypakkaya, fondateur du Parti communiste de Turquie/marxiste-léniniste.
+1974 :
+Carlos Prats, général chilien en exil.
+Günter von Drenkmann, chef de la Justice de Berlin.
+Alberto Villar, vice-chef de la police fédérale argentine.
+1975 :
+Herbert Chitepo, homme politique zimbabwéen.
+Heinz Hillegaart, diplomate allemand.
+Josiah Kariuki, homme politique kényan.
+Richard Welch, chef de poste de la CIA à Athènes.
+Roque Dalton, poète et militant salvadorien.
+Assassinat du Sheikh Mujibur Rahman :
+Sheikh Abu Naser, frère de Mujibur Rahman.
+Sheikh Fazilatunnesa Mujib, femme de Mujibur Rahman.
+Sheikh Kamal, fils de Mujibur Rahman.
+Sultana Kamal, femme de Sheikh Kamal.
+Sheikh Jamal, fils de Mujibur Rahman.
+Sheikh Russel, fils de Mujibur Rahman.
+Sheikh Fazlul Haque Mani, neveu de Mujibur Rahman.
+Abdur Rab Serniabat, beau-frère de Mujibur Rahman.
+1976 :
+Orlando Letelier, ancien ambassadeur chilien.
+Juan José Torres, ancien président de la Bolivie.
+Jean de Broglie, ancien ministre français.
+Christopher Ewart-Biggs, ambassadeur britannique en Irlande.
+Zelmar Michelini, journaliste et homme politique uruguayen.
+Héctor Gutiérrez Ruiz, homme politique uruguayen.
+William Whitelaw et Rosario del Carmen Barredo, deux membres des Tupamaros.
+Hector Pietersen, adolescent sud-africain.
+John Roselli, mafieux américain, impliqué dans les relations entre la Central Intelligence Agency et la Mafia américaine.
+1977 :
+Kamal Joumblatt, homme politique libanais.
+Rutilio Grande, prêtre, travailleur social (Salvador).
+Siegfried Buback, procureur général fédéral près la Cour fédérale allemand.
+Jürgen Ponto, banquier allemand.
+Hans Martin Schleyer, président du patronat allemand.
+Jean-Antoine Tramoni, agent de sécurité ayant tué Pierre Overney.
+Rodolfo Walsh, journaliste argentin.
+Alice Domon et Léonie Duquet, religieuses françaises.
+Ndouna Dépénaud, diplomate gabonais.
+1978 :
+Guéorgui Markov, homme politique bulgare.
+François Duprat, homme politique français.
+George Moscone, maire de San Francisco.
+Harvey Milk, conseiller municipal homosexuel de San Francisco.
+Abdul Razak al-Naif, ancien premier ministre irakien.
+Clemens Kapuuo, homme politique namibien.
+Aldo Moro, ancien premier ministre italien.
+Henri Curiel, militant d'extrême-gauche français.
+Leo Ryan, représentant démocrate de Californie au Congrès des États-Unis.
+Pedro Joaquín Chamorro Cardenal, journaliste et éditeur nicaraguayen.
+José Miguel Beñarán Ordeñana, membre de l'ETA.
+Tony Frangié, ancien ministre libanais, avec sa femme et sa fille.
+Peppino Impastato, journaliste et animateur radio Italien, alors qu'il est candidat lors d'une campagne municipale à Cinisi.
+1979 :
+Airey Neave, homme politique britannique.
+Richard Sykes, ambassadeur britannique aux Pays-Bas.
+Louis Mountbatten, vice-amiral, ancien vice-roi des Indes, oncle par alliance de la reine Élisabeth II.
+Pierre Goldman, militant d'extrême gauche français.
+Adolph Dubs, ambassadeur des États-Unis en Afghanistan.
+Carmine Pecorelli, journaliste italien.
+Ali Hassan Salameh, organisateur de la prise d'otages des Jeux olympiques de Munich.
+Abdi İpekçi, journaliste turc.
+1980 :
+Joseph Fontanet, homme politique français et ancien ministre.
+Nihat Erim, ancien premier ministre turc.
+Anastasio Somoza Debayle, ancien président du Nicaragua.
+Yolanda González Martín, militante trotskiste espagnole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1981-1990</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1981 :
+Mohammad Beheshti, dirigeant du parti républicain islamique iranien.
+Louis Delamare, ambassadeur français au Liban.
+Pierre Declercq, indépendantiste néocalédonien.
+Naïm Khader, représentant de l'Organisation de libération de la Palestine.
+1982 :
+Atilla Altžkat, diplomate turc.
+Eduardo Frei Montalva, ancien président du Chili.
+Jean-Pierre Maïone-Libaude, ancien membre de l'OAS.
+1983 :
+Benigno Aquino, Jr., homme politique philippin.
+Lee Bum Suk, ministre des affaires étrangères de la Corée du Sud.
+Guy Orsoni, militant nationaliste du FLNC.
+Yorian Gabriel, militaire de Haute-Volta.
+Pierre-Jean Massimi, secrétaire général français de la Haute-Corse.
+1984 :
+Alan Berg, animateur de radio américain.
+Jerzy Popieluszko, prêtre, aumônier de Solidarnosc.
+André Jarlan, prêtre catholique français.
+1985 :
+Nicolas Kluiters, père jésuite néerlandais, à Nabha (Liban).
+René Audran, général français.
+Vernon Nkadimeng, dissident sud-africain.
+Ernst Zimmerman, patron allemand.
+Frank Shoofey, avocat canadien.
+Paul-Bernard Kemayou, roi de Bangou et homme politique camerounais.
+1986 :
+Guillermo Cano Isaza, journaliste colombien.
+Georges Besse, président de la Régie Renault.
+Michele Sindona, banquier italien.
+1987 :
+Ali André Mécili, avocat parisien et opposant algérien.
+Mustafa Bouyali, fondamentaliste islamique algérien.
+Naji al-Ali, caricaturiste palestinien.
+1988 :
+Vijaya Kumaratunga, homme politique et acteur srilankais.
+Sayd Bahodine Majrouh, homme politique, poète, philosophe et militant afghan.
+Chico Mendes, seringueiro, défenseur de l’Amazonie.
+Dulcie September, représentante de l'ANC en France.
+1989 :
+Jean-Marie Tjibaou, homme politique français, leader indépendantiste kanak.
+Luis Carlos Galán, homme politique colombien.
+Abdullah Azzam, cheikh palestinien.
+Danny Huwé, journaliste belge.
+1990 :
+Jean-Jacques Peschard, maire du VIIe arrondissement de Marseille.
+Ian Gow, homme politique britannique.
+Robert Ouko, ministre kenyan des affaires étrangères.
+Bernardo Jaramillo Ossa, homme politique colombien.
+Meir Kahane, rabbin et homme politique israélo-américain.
+Paul Mariani, maire de Soveria (Corse).
+Gerald Bull, ingénieur canadien.
+Turan Dursun, écrivain turc.
+Bahriye Üçok, universitaire et militante turque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1991-2000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1991 :
+Rajiv Gandhi, premier ministre indien
+André Cools, homme politique belge.
+Shapour Bakhtiar, ancien premier ministre iranien.
+Clément Oumarou Ouédraogo, leader de l'opposition burkinabé.
+Salah Khalaf, no 2 de l'OLP.
+Faqri Al-Oumari, membre de l'OLP.
+Hayel Abdul Hamid, membre de l'OLP.
+Detlev Karsten Rohwedder, homme politique allemand.
+Jaime Guzmán, homme politique chilien.
+1992 :
+Salvatore Lima, homme politique italien, ancien maire de Palerme.
+Farag Foda, homme politique et intellectuel égyptien.
+Ivan Kramberger, homme politique slovène.
+Atef Bseiso, officiel palestinien.
+Petra Kelly, femme politique allemande et fondatrice du Parti allemand des Verts.
+1993 :
+Jorge Carpio Nicolle, éditeur de journaux et politicien guatémaltèque.
+Emmanuel Gapyisi, homme politique rwandais.
+Hakija Turajlić, vice-Premier ministre de la Bosnie-Herzégovine.
+Kasdi Merbah, ancien premier ministre algérien.
+Tahar Djaout, écrivain et journaliste algérien.
+Chris Hani, chef du parti communiste sud-africain.
+Pontien Karibwami, président de l'Assemblée nationale du Burundi.
+Gilles Bimazubute, vice-président de l'Assemblée nationale du Burundi.
+Juvénal Ndayikeza, ministre de l'Administration du Territoire et du Développement communal du Burundi.
+Juan Jesús Posadas Ocampo, cardinal mexicain.
+Youcef Sebti, poète algérien.
+Uğur Mumcu, journaliste turc.
+Antoine Izméry, homme politique haïtien.
+François Guy Malary, ministre de la Justice haïtien.
+Babacar Sèye, ancien vice-président du Conseil constitutionnel sénégalais.
+Mahfoud Boucebci, universitaire algérien.
+Lâadi Flici, écrivain algérien.
+1994 :
+Yann Piat, députée du Var.
+Luis Donaldo Colosio, homme politique mexicain, candidat à la présidence du Mexique, dans un attentat à Tijuana.
+Christian Chessel et trois autres pères blancs de Tizi Ouzou (Algérie).
+Henri Vergès, frère mariste, et Paul-Hélène Saint-Raymond, religieuse, à Alger.
+Said Mekbel, journaliste algérien.
+Abdelkader Alloula, écrivain algérien.
+Olivier Quemener, journaliste français.
+Vincent Nsengiyumva, archevêque de Kigali, Thaddée Nsengiyumva, évêque de Kabgayi et Joseph Ruzindana (en), évêque de Byumba (Rwanda).
+John Britton, médecin américain pratiquant l'avortement.
+Robert Allo, cofondateur du GUD, militant et homme d'affaires sulfureux
+1995 :
+Irfan Ljubijankić, ministre des affaires étrangères de la Bosnie-Herzégovine.
+Said Tazrout, journaliste algérien.
+Vladislav Listiev, journaliste russe.
+Álvaro Gómez Hurtado, écrivain et candidat présidentiel colombien.
+Fathi Shaqaqi, dirigeant du Jihad islamique palestinien.
+Abdelbaki Sahraoui, imam algérien, membre fondateur du FIS.
+Brahim Guerroui, caricaturiste algérien.
+Abdul Ali Mazârî, chef de parti afghan.
+Onat Kutlar, écrivain turc.
+1996 :
+Assassinat des moines de Tibhirine (Algérie) : sept moines trappistes dont
+Christian de Chergé.
+Luc Dochier.
+Paul Favre-Miville.
+Bruno Lemarchand.
+Célestin Ringeard.
+Pierre Claverie, évêque d'Oran (Algérie).
+Christophe Munzihirwa, archevêque de Bukavu (R.D. du Congo).
+Andrei Lukanov, ancien premier ministre de la Bulgarie.
+Yahia Ayache, chef des Brigades Izz al-Din al-Qassam, aile militaire du Hamas.
+Murtaza Bhutto, homme politique pakistanais.
+Mohamed Hardi, homme politique algérien.
+Kudirat Abiola, femme politique nigériane.
+Reza Mazlouman, ancien vice-ministre iranien de l'éducation à l'époque du Chah d'Iran.
+Peng Wan-ru, féministe taïwanaise.
+1997 :
+Miguel Angel Blanco, conseiller municipal au Pays basque espagnol.
+Son Sen et Yun Yat, dirigeants khmer rouge, avec l'ensemble de leur clan.
+1998 :
+Tommy Burks, sénateur du Tennessee.
+Larissa Youdina, journaliste russe.
+Norbert Zongo, journaliste burkinabé, ainsi que Blaise Ilboudo, Ablassé Nikiéma et Ernest Zongo.
+Seth Sendashonga, homme politique rwandais.
+Claude Érignac, préfet de Corse.
+1999 :
+Luis María Argaña, vice-président du Paraguay.
+Ahmet Taner Kislali, homme politique turc.
+Massimo d'Antona, conseiller du ministre italien du travail.
+Jaime Garzón, journaliste et homme politique colombien.
+Rose Agatha Leon, femme d'affaires et politicienne jamaïcaine.
+Fusillade du Parlement arménien de 1999 :
+Karen Demirtchian, président de l'Assemblée nationale arménienne.
+Yuri Bakhshyan, assistant de Demirtchian.
+Ruben Miroyan, assistant de Demirtchian.
+Leonard Petrosian, ancien ministre arménien.
+2000 :
+Fernando Buesa Blanco, homme politique espagnol.
+Ernest Lluch i Martín, homme politique et ancien ministre espagnol.
+Pavle Bulatović, ministre yougoslave de la Défense.
+Jean Dominique, journaliste haïtien.
+Željko Ražnatović dit Arkan, chef de milice et mafieux serbe.
+Jean-Michel Rossi, fondateur du FLNC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2001-2010</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2001 :
+Ahmed Chah Massoud, chef de la résistance contre les taliban en Afghanistan.
+Bola Ige, ministre nigérian de la Justice.
+Mustafa Zibri, homme politique palestinien, et responsable de la branche armée du FPLP.
+Rehavam Zeevi, général et ministre israélien.
+Siddiq Khan Kanju, ancien ministre pakistanais des Affaires étrangères.
+Rashidi Mizele, garde du corps et assassin de Laurent-Désiré Kabila, président du Congo.
+Phûlan Devî, membre du Parlement indien féministe et ancienne dacoït.
+André Kagwa Rwisereka, homme politique rwandais.
+François Santoni, ancien membre du FLNC et fondateur d'Armata Corsa.
+2002 :
+Pim Fortuyn, homme politique néerlandais.
+Émile Boga Doudou, ministre ivoirien de l’Intérieur.
+Abdul Qadir, vice-président de l’Afghanistan.
+Robert Guéï, général et ancien président de la Côte d'Ivoire.
+Abdul Rahman (ministre afghan), ministre afghan de l’aviation civile et du tourisme.
+Marco Biagi, conseiller du ministre italien du travail.
+Abdul Ghani Lone, leader politique du Cachemire.
+Elie Hobeika, chef de milices libanais.
+Salah Shehadeh, chef palestinien des Brigades Izz al-Din al-Qassam.
+Raed Karmi, chef palestinien régional des Brigades des martyrs d'Al-Aqsa.
+2003 :
+Mohammed Ahmad al-Rasheed, ambassadeur d’Arabie saoudite en Côte d'Ivoire.
+Anna Lindh, ministre suédoise des affaires étrangères.
+Sérgio Vieira de Mello, représentant spécial de l'ONU en Irak.
+Kamel Benbara, député algérien.
+Mgr Michael Courtney, nonce apostolique au Burundi.
+Roger Short, consul-général britannique.
+James Miller, journaliste britannique.
+Amiot Métayer, chef de gang et militant haïtien.
+2004 :
+Hatem Kamil, vice-gouverneur de la province de Bagdad.
+Zelimkhan Iandarbïev, ancien président de la république autoproclamée de Tchétchénie.
+Theo van Gogh, réalisateur néerlandais.
+Ahmed Yassine, fondateur du Hamas.
+Abdel Aziz al-Rantissi, chef général du Hamas.
+Paul Klebnikov, journaliste américain d'origine russe.
+Veríssimo Correia Seabra, officier général et homme politique de Guinée-Bissau.
+Munir Saïd Thalib, militant indonésien.
+2005 :
+Rafiq Hariri, ancien premier ministre du Liban.
+Bassel Fleihan, ministre libanais de l'économie et du commerce.
+George Hawi, ancien chef du parti communiste libanais.
+Samir Kassir, journaliste franco-libanais.
+Ihab al-Chérif, ambassadeur d'Égypte en Irak.
+Masoud Moqadasi, juge iranien.
+Lakshman Kadirgamar, ministre des affaires étrangères du Sri Lanka.
+Moussa Arafat, général, conseiller du président de l'Autorité palestinienne Mahmoud Abbas et cousin de Yasser Arafat.
+Filiberto Ojeda Ríos, leader révolutionnaire portoricain.
+Gebrane Tuéni, journaliste anti-syrien et député grec-orthodoxe de Beyrouth.
+2006 :
+Robert Feliciaggi, homme d'affaires et homme politique français.
+Jean-Bruce Guénéféï, maire de Bossangoa, dans le nord de la Centrafrique.
+Allama Hassan Turabi, leader religieux chiite et homme politique pakistanais.
+Safia Amajan, avocate afghane et militante des droits des femmes.
+Anna Politkovskaïa, journaliste russe.
+Pierre Gemayel, ministre libanais de l'Industrie.
+Alexandre Litvinenko, ancien espion russe.
+Omololu Falobi, journaliste nigérian.
+Bradley Roland Will, journaliste américain.
+Bapuwa Mwamba, journaliste congolais.
+Nadarajah Raviraj, parlementaire de l'Alliance nationale tamoule.
+Robert Feliciaggi, maire de Pila-Canale (Corse).
+2007 :
+Hrant Dink, journaliste turc d'origine arménienne.
+Zilla Huma Usman, femme politique pakistanaise et ministre local du Pendjab.
+Itchō Itō, maire de Nagasaki.
+Abdul Saboor Farid, ancien premier ministre de l'Afghanistan.
+Walid Eido, magistrat et député libanais.
+Antoine Ghanem, député libanais, anti-syrien.
+Sayed Mustafa Kazemi, homme politique d'opposition et ancien ministre afghan.
+François el-Hajj, général libanais.
+Fuat Deniz, sociologue et écrivain suédois.
+Benazir Bhutto, dirigeante du Parti du peuple pakistanais et ancien Premier ministre pakistanaise.
+Brahim Déby, fils et secrétaire particulier du président tchadien Idriss Déby Itno.
+Abdul Sattar Abou Richa, cheikh sunnite irakien.
+2008 :
+Thiyagarajah Maheswaran, homme politique sri-lankais, député tamoul, membre du parti d'opposition Parti national uni (UNP).
+Melitus Mugabe Were, homme politique kenyan, député du parti d'opposition Orange Democratic Movement (ODM).
+David Kimutai Too, homme politique kenyan, député du parti d'opposition Orange Democratic Movement (ODM).
+Nasteh Dahir, journaliste somalien.
+Abdul Samad Rohani, journaliste afghan.
+Malalaï Kakar, officier de police afghane.
+John Granville, diplomate américain.
+2009 :
+Christian Poveda, photo-reporter et réalisateur français.
+Batista Tagme Na Waie, homme politique et officier bissau-guinéen, chef d'état-major de l'armée.
+Nizar Rayyan, dirigeant politico-religieux du Hamas.
+Natalia Estemirova, journaliste russe et membre du conseil d'administration de l'ONG Memorial.
+Lasantha Wickrematunga, journaliste sri-lankais.
+Stanislav Markelov, avocat et journaliste russe, et Anastasia Babourova, journaliste russe.
+Luis Cuellar, gouverneur de la province de Caquetá (Colombie).
+Sitara Achakzaï, militante des droits de la femme afghano-allemande.
+Sarfraz Ahmed Naeemi, mufti pakistanais.
+Lamana Ould Bou, militaire malien.
+Rail Rzayev, militaire azerbaïdjanais.
+2010 :
+Floribert Chebeya, militant des droits de l'homme congolais et fondateur de l'ONG : la Voix des sans-voix.
+Mahmoud al-Mabhouh, chef des Brigades Izz al-Din al-Qassam.
+Zaman Ghamsharik, chef tribal afghan.
+Eugène Terre'Blanche, leader du Mouvement de résistance afrikaner.
+Jean-Léonard Rugambage, journaliste rwandais.
+Khattiya Sawasdiphol, général thaïlandais.
+André Kagwa Rwisereka, homme politique rwandais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2011-2020</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2011 :
+Salman Taseer, gouverneur du Pendjab pakistanais.
+David Kato Kisule, militant ougandais.
+Shahbaz Bhatti, ministre pakistanais des minorités religieuses.
+Juliano Mer-Khamis, artiste et militant israélien propalestinien.
+Iouri Boudanov, militaire russe.
+Burhanuddin Rabbani, homme politique et ancien président afghan.
+Mouammar Kadhafi, dirigeant déchu de la Libye.
+Charles Ingabire, journaliste rwandais.
+2012 :
+Antoine Sollacaro, avocat proche du nationalisme corse.
+2013 :
+Sakine Cansız, et deux autres militantes kurdes.
+Chokri Belaïd, homme politique tunisien.
+Mohamed Brahmi, homme politique tunisien.
+Kofi Awoonor, écrivain et poète ghanéen.
+Hrach Mouradian, chef de la communauté rurale de Proshyan.
+Mohammad Chatah, homme politique libanais.
+Ahmed Rajib Haider, blogueur bangladais.
+2014 :
+Mamadou Ndala, général de la république démocratique du Congo.
+Frans van der Lugt, prêtre jésuite néerlandais, à Homs, Syrie.
+2015 :
+Fusillade au siège de Charlie Hebdo
+Georges Wolinski, dessinateur de presse français.
+Bernard Verlhac, dit Tignous, dessinateur de presse et caricaturiste français.
+Jean Cabut, dit Cabu, dessinateur de presse et auteur de bande dessinée français.
+Stéphane Charbonnier, dit Charb, dessinateur et journaliste français.
+Bernard Maris, économiste et journaliste français.
+Philippe Honoré, dessinateur de presse français.
+Elsa Cayat, psychiatre et psychanalyste française.
+Boris Nemtsov, homme politique russe.
+Avijit Roy, blogueur et militant américano-bangladais.
+Ananta Bijoy Das, blogueur bangladais.
+Faisal Arefin Dipan, éditeur bangladais.
+2016 :
+Berta Cáceres, militante hondurienne.
+Soran Singh, homme politique pakistanais.
+Xulhaz Mannan, militant bangladais.
+Jo Cox, femme politique britannique, membre du Parti travailliste.
+Hafsa Mossi, journaliste et femme politique burundaise.
+Pavel Cheremet, journaliste biélorusse.
+Jacques Hamel, prêtre catholique français.
+Rodlfo Illanes, homme politique bolivien.
+Nahed Hattar, journaliste jordanien.
+Cheikh Ag Aoussa, chef touareg.
+Arsen Pavlov, militaire pro-russe actif dans le Donbass.
+Mohamed Zouari, cadre tunisien des Brigades Izz al-Din al-Qassam.
+Andreï Karlov, ambassadeur de Russie en Turquie.
+2017 :
+Emmanuel Niyonkuru, homme politique burundais.
+Ko Ni, avocat birman.
+Mikhaïl Tolstykh, militaire ukrainien pro-russe.
+Kim Jong-nam, demi-frère du dirigeant nord-coréen Kim Jong-un.
+Denis Voronenkov, homme politique russe.
+Wayne Lotter, militant anti-braconnage sud-africain.
+Daphne Caruana Galizia, journaliste maltaise.
+Ali Abdallah Saleh, ex-président du Yémen.
+2018 :
+Oliver Ivanović, homme politique serbe.
+Ján Kuciak, journaliste slovaque.
+Marielle Franco, femme politique et militante brésilienne.
+Jamal Khashoggi, journaliste saoudien.
+2019 :
+Paweł Adamowicz, maire de Gdańsk.
+Walter Lübcke, homme politique allemand.
+2020 :
+Qassem Soleimani, général iranien tué le 3 janvier à Bagdad, en Irak, par un tir de drone américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Assassinats politiques ou de personnalités politiques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2021-2030</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2021 :
+Luca Attanasio, ambassadeur italien en république démocratique du Congo.
+David Amess, homme politique britannique, membre du Parti conservateur.
+2022 : Shinzō Abe, homme d'État japonais, ancien premier ministre du Japon, représentant du Japon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Otages assassinés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>1600 : Gracia Hosokawa, noble japonaise chrétienne.
 1871 :
@@ -1742,34 +3004,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Autres assassinats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant le XXe siècle
-    81 av. J.-C. : Sextus Roscius, riche propriétaire foncier romain.
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Avant le XXe siècle</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    81 av. J.-C. : Sextus Roscius, riche propriétaire foncier romain.
   434 : Robba, religieuse donatiste berbère.
 fin du VIe siècle av. J.-C. : Anacharsis, philosophe scythe.
   584 : Armentaire, prêteur sur gages juif.
@@ -1823,17 +3090,130 @@
 1883 : Clara Harris, femme du consul des États-Unis au royaume de Hanovre.
 1884 : Charles Huber, explorateur français.
 1889 : Belle Starr, criminelle américaine.
-1894 : Agostina Pietrantoni, religieuse italienne.
-XXe siècle
-1901-1910
-1909 : Jules Godart, chanteur lyrique belge.
-1911-1920
-1914 : Gaston Calmette, journaliste français, directeur du Figaro.
+1894 : Agostina Pietrantoni, religieuse italienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1901-1910</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1909 : Jules Godart, chanteur lyrique belge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1911-1920</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1914 : Gaston Calmette, journaliste français, directeur du Figaro.
 1916 : Charles de Foucauld, religieux et militaire français.
 1919 : James Reese Europe, musicien américain.
-1920 : Big Jim Colosimo, mafieux américain, chef de l'Outfit de Chicago.
-1921-1930
-1922 : William Desmond Taylor, réalisateur américain.
+1920 : Big Jim Colosimo, mafieux américain, chef de l'Outfit de Chicago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1921-1930</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1922 : William Desmond Taylor, réalisateur américain.
 1924 :
 Gaspare Messina mafieux américain, chef de la famille Patriarca.
 Dion O'Banion, mafieux américain, chef du North Side Gang.
@@ -1852,9 +3232,47 @@
 Steven Ferrigno, mafieux américain.
 Joe Pinzolo, mafieux américain, chef de la famille Lucchese.
 Habiba Msika, chanteuse tunisienne.
-Simko Shikak, chef de tribu kurde.
-1931-1940
-1931 :
+Simko Shikak, chef de tribu kurde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1931-1940</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1931 :
 Joe Masseria, mafieux américain, chef de la famille Masseria.
 Salvatore Maranzano, mafieux américain, chef de la famille Bonanno.
 Legs Diamond, mafieux américain.
@@ -1867,9 +3285,47 @@
 John Avena, mafieux américain, chef de la famille de Scarfo.
 Louis Leplée, découvreur d'Édith Piaf.
 Raoul Villain, assassin de Jean Jaurès.
-1940 : Vsevolod Meyerhold, dramaturge et metteur en scène russe et Olga Mundt, son épouse.
-1941-1950
-1942 : Bruno Schulz, écrivain polonais.
+1940 : Vsevolod Meyerhold, dramaturge et metteur en scène russe et Olga Mundt, son épouse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1941-1950</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1942 : Bruno Schulz, écrivain polonais.
 1943 : Prosper Bernard, missionnaire jésuite canadien.
 1945 : Robert Denoël, éditeur belge.
 1946 :
@@ -1879,9 +3335,47 @@
 1947 :
 Bugsy Siegel, mafieux américain.
 Elizabeth Ann Short, actrice américaine.
-1950 : Salvatore Giuliano, criminel italien.
-1951-1960
-1951 :
+1950 : Salvatore Giuliano, criminel italien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1951-1960</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1951 :
 Willie Moretti, mafieux américain.
 Vincent Mangano, chef de la famille Gambino, et son frère Filippo Mangano, mafieux américains.
 1952 : Ferhat Hached
@@ -1893,9 +3387,47 @@
 Frank Scalise, mafieux américain, chef de la famille Gambino.
 1958 :
 Johnny Stompanato, mafieux américain.
-Michele Navarra, mafieux italien.
-1961-1970
-1961 : Cheikh Raymond, chanteur français.
+Michele Navarra, mafieux italien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1961-1970</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1961 : Cheikh Raymond, chanteur français.
 1963 : Lee Harvey Oswald, assassin supposé de John F. Kennedy.
 1964 :
 Sam Cooke, chanteur américain.
@@ -1908,9 +3440,47 @@
 Antoine Guérini, mafieux français.
 Joe Orton, dramaturge anglais.
 1968 : Ramón Novarro, acteur américain.
-1969 : Sharon Tate, actrice américaine.
-1971-1980
-1972 :
+1969 : Sharon Tate, actrice américaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1971-1980</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1972 :
 Joe Gallo, mafieux américain.
 Lee Morgan, musicien américain.
 1975 :
@@ -1936,9 +3506,47 @@
 Óscar Romero, archevêque de San Salvador.
 Dorothy Stratten, actrice canadienne.
 Angelo Bruno, mafieux américain, chef de la famille de Scarfo.
-Yahya Al-Meshad, physicien nucléaire égyptien.
-1981-1990
-1981 :
+Yahya Al-Meshad, physicien nucléaire égyptien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1981-1990</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1981 :
 Pierre Michel, juge d'instruction français.
 Philip Testa, mafieux américain, chef de la famille de Scarfo.
 1982 :
@@ -1971,9 +3579,47 @@
 George Adamson, naturaliste britannique.
 Rebecca Schaeffer, actrice américaine.
 Sirima, chanteuse.
-1990 : Walter Sedlmayr, acteur allemand.
-1991-2000
-1991 : Andrzej Zaucha, musicien polonais.
+1990 : Walter Sedlmayr, acteur allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1991-2000</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1991 : Andrzej Zaucha, musicien polonais.
 1992 :
 Giovanni Falcone, juge anti-mafia italien.
 Paolo Borsellino, juge anti-mafia italien.
@@ -2020,10 +3666,47 @@
 2000 :
 Carlos Cardoso, journaliste mozambicain.
 Mausberg, rappeur américain.
-Jean-Louis Jorge, réalisateur dominicain.
-XXIe siècle
-2001-2010
-2001 :
+Jean-Louis Jorge, réalisateur dominicain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2001-2010</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2001 :
 Peter Blake, navigateur néo-zélandais.
 Theophilus Beckford, musicien jamaïcain.
 2002 :
@@ -2091,9 +3774,47 @@
 Bernard Mazières, journaliste français.
 Luigi Padovese, évêque italien.
 Nicolo Rizzuto, mafieux canadien.
-Alain Coelier, mafieux français.
-2011-2020
-2011 :
+Alain Coelier, mafieux français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2011-2020</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2011 :
 Facundo Cabral, chanteur argentin.
 Paul Frappier, maître de cérémonie canadien.
 Solly Tyibilika, joueur de rugby sud-africain.
@@ -2120,9 +3841,47 @@
 Kim Wall, journaliste suédoise.
 2018 :
 XXXTentacion : rappeur américain.
-Denis Ten : patineur kazakh.
-2021-2030
-Gabriel Fourmigué, bobeur français.
+Denis Ten : patineur kazakh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_assassinées</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_assassin%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Autres assassinats</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2021-2030</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Fourmigué, bobeur français.
 </t>
         </is>
       </c>
